--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>4</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>4</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>4</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>42</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -587,13 +587,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -613,13 +613,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>3</x:v>
@@ -847,13 +847,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>2</x:v>
@@ -951,13 +951,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>3</x:v>
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>45</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>2</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>13</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>4</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>14</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>5</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>3</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>7</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>5</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>20</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,16 +584,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -717,13 +717,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>47</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>2</x:v>
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>16</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>3</x:v>
@@ -847,13 +847,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>25</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>25</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>49</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>6</x:v>
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>4</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>49</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>3</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>6</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>49</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -561,13 +561,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>6</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>6</x:v>
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>5</x:v>
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>5</x:v>
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>4</x:v>
@@ -795,13 +795,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -873,13 +873,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>3</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>3</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>6</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>28</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>20</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>9</x:v>
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>6</x:v>
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>56</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>20</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -561,13 +561,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -587,13 +587,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>9</x:v>
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>7</x:v>
@@ -691,13 +691,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -717,13 +717,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -769,13 +769,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -795,13 +795,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>223</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>10</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>34</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,16 +662,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -691,13 +691,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>34</x:v>
@@ -899,13 +899,13 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>7</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>21</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>11</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>34</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>63</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>25</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>11</x:v>
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>5</x:v>
@@ -818,7 +818,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>2</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>15</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>34</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>63</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>25</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>7</x:v>
@@ -561,13 +561,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>11</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>5</x:v>
@@ -821,13 +821,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>7</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>11</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>15</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>35</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>65</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>11</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>11</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>15</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>65</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>35</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>65</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -587,13 +587,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>9</x:v>
@@ -665,13 +665,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>9</x:v>
@@ -613,13 +613,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>21</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>12</x:v>
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,16 +610,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>11</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>6</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>6</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>11</x:v>
@@ -769,13 +769,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>69</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>12</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>35</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>256</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>7</x:v>
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>259</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>70</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>9</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>15</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>70</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>11</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>22</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>35</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>70</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>35</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>70</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>12</x:v>
@@ -766,16 +766,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>70</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -662,16 +662,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -717,13 +717,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>269</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>11</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>22</x:v>
@@ -662,16 +662,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>12</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>15</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>77</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>11</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>37</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>77</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -613,13 +613,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>6</x:v>
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>12</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>38</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>78</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>22</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>12</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>26</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>38</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>12</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>78</x:v>
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>6</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>6</x:v>
@@ -873,13 +873,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>23</x:v>
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>7</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>79</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>27</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>10</x:v>
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>7</x:v>
@@ -639,13 +639,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -795,13 +795,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>79</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>27</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,16 +558,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>13</x:v>
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>40</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>79</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>9</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>27</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -561,13 +561,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>8</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>40</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>286</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>9</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>13</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>7</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>82</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>27</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>12</x:v>
@@ -639,13 +639,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>82</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>82</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>25</x:v>
@@ -766,16 +766,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>10</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>12</x:v>
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>13</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>82</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -561,13 +561,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -769,13 +769,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -795,13 +795,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>11</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>16</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>41</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>84</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>27</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>10</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>16</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>84</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>27</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>13</x:v>
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -561,13 +561,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -639,13 +639,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>84</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>13</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>15</x:v>
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>26</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>43</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>13</x:v>
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>26</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>14</x:v>
@@ -818,16 +818,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>17</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>84</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>15</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>10</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>84</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>17</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>12</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -662,16 +662,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>14</x:v>
@@ -847,13 +847,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>44</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>84</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -538,10 +538,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -564,10 +564,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -590,10 +590,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -616,10 +616,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -642,10 +642,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -668,10 +668,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -694,10 +694,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -720,10 +720,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -772,10 +772,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -798,10 +798,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -876,10 +876,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -954,10 +954,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>14</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>85</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -818,16 +818,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>14</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>14</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>10</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>85</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -766,16 +766,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -587,13 +587,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -613,13 +613,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -769,13 +769,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -795,13 +795,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -818,7 +818,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>5</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>45</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>11</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>28</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>45</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>85</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>17</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>12</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>85</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>28</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>85</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>26</x:v>
@@ -662,16 +662,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -951,13 +951,13 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,16 +558,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -714,16 +714,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>14</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>12</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>88</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>30</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>19</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>88</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>30</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>15</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>88</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -561,13 +561,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>15</x:v>
@@ -821,13 +821,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>18</x:v>
@@ -899,13 +899,13 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>13</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>26</x:v>
@@ -795,13 +795,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>89</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>14</x:v>
@@ -610,16 +610,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -561,13 +561,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -613,13 +613,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>15</x:v>
@@ -766,16 +766,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>15</x:v>
@@ -639,13 +639,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>14</x:v>
@@ -769,13 +769,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>49</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>12</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>27</x:v>
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -766,16 +766,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>18</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>49</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -561,13 +561,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>9</x:v>
@@ -639,13 +639,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -691,13 +691,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -769,13 +769,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -873,13 +873,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -925,13 +925,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>16</x:v>
@@ -639,13 +639,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>15</x:v>
@@ -766,16 +766,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>14</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>18</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>94</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>16</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>14</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>18</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>52</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>94</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>15</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>16</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>18</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>52</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>15</x:v>
@@ -847,13 +847,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>52</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>15</x:v>
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>18</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>14</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>52</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>96</x:v>
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>14</x:v>
@@ -951,13 +951,13 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>20</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>52</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>16</x:v>
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>15</x:v>
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>29</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>14</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>52</x:v>
@@ -899,13 +899,13 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>34</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>17</x:v>
@@ -561,13 +561,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -584,16 +584,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>14</x:v>
@@ -899,13 +899,13 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>34</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>20</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -662,16 +662,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>17</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>34</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -584,16 +584,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -610,16 +610,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -639,13 +639,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -691,13 +691,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>17</x:v>
@@ -610,16 +610,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>30</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>14</x:v>
@@ -873,13 +873,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>335</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>18</x:v>
@@ -584,16 +584,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>59</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>104</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>34</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -558,16 +558,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -610,7 +610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>18</x:v>
@@ -792,16 +792,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>59</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>15</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>34</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -558,16 +558,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -688,16 +688,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>7</x:v>
@@ -766,7 +766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>17</x:v>
@@ -792,7 +792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>16</x:v>
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>22</x:v>
@@ -870,16 +870,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>15</x:v>
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -558,16 +558,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -610,16 +610,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -740,16 +740,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>62</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>110</x:v>
@@ -922,16 +922,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>36</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -561,13 +561,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -587,13 +587,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -613,13 +613,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -639,13 +639,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -665,13 +665,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -717,13 +717,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -795,13 +795,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -873,13 +873,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -925,13 +925,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -951,13 +951,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -925,13 +925,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -873,13 +873,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -743,13 +743,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -535,13 +535,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -561,13 +561,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -587,13 +587,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -613,13 +613,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -639,13 +639,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -691,13 +691,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -717,13 +717,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -743,13 +743,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -769,13 +769,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -795,13 +795,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -873,13 +873,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -899,13 +899,13 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -925,13 +925,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -951,13 +951,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Subsequente.xlsx
@@ -951,13 +951,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
